--- a/target/classes/testDataFiles/UserManagementScreen.xlsx
+++ b/target/classes/testDataFiles/UserManagementScreen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28314"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yusuf Data\Study stuff\WorkSpace\Shaft_Engine_Practice\src\test\resources\testDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\eclipse-workspace\Shaft_Engine_Practice\src\test\resources\testDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297DBAFF-B53F-437A-9D91-3E71C696B229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD764F43-A808-4F50-A886-EBC9FFF428B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Variable</t>
   </si>
@@ -115,6 +115,21 @@
   </si>
   <si>
     <t>//label[contains(text(),'Full Name :')]</t>
+  </si>
+  <si>
+    <t>editUserExp1</t>
+  </si>
+  <si>
+    <t>editUserExp2</t>
+  </si>
+  <si>
+    <t>') ]]/td/button[@id='edit']</t>
+  </si>
+  <si>
+    <t>user_save_btn</t>
+  </si>
+  <si>
+    <t>editUser</t>
   </si>
 </sst>
 </file>
@@ -433,19 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="75.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -461,7 +476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -469,7 +484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -477,7 +492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -485,7 +500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -493,7 +508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -501,7 +516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -509,7 +524,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -517,7 +532,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -525,7 +540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -533,7 +548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -541,7 +556,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -549,7 +564,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -557,12 +572,36 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
